--- a/fplfixtures.xlsx
+++ b/fplfixtures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="292">
   <si>
     <t>code</t>
   </si>
@@ -866,6 +866,30 @@
   </si>
   <si>
     <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 218}], 'h': [{'value': 1, 'element': 191}, {'value': 1, 'element': 192}, {'value': 1, 'element': 197}]}, {'identifier': 'assists', 'a': [], 'h': [{'value': 1, 'element': 181}, {'value': 1, 'element': 198}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 211}, {'value': 1, 'element': 443}], 'h': []}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 2, 'element': 213}], 'h': [{'value': 2, 'element': 189}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 218}], 'h': [{'value': 2, 'element': 197}, {'value': 1, 'element': 191}]}, {'identifier': 'bps', 'a': [{'value': 30, 'element': 218}, {'value': 21, 'element': 221}, {'value': 21, 'element': 440}, {'value': 18, 'element': 215}, {'value': 18, 'element': 222}, {'value': 17, 'element': 207}, {'value': 16, 'element': 213}, {'value': 14, 'element': 443}, {'value': 7, 'element': 203}, {'value': 5, 'element': 210}, {'value': 5, 'element': 214}, {'value': -1, 'element': 211}], 'h': [{'value': 29, 'element': 197}, {'value': 25, 'element': 191}, {'value': 24, 'element': 181}, {'value': 21, 'element': 192}, {'value': 21, 'element': 198}, {'value': 18, 'element': 189}, {'value': 16, 'element': 199}, {'value': 15, 'element': 183}, {'value': 13, 'element': 186}, {'value': 11, 'element': 182}, {'value': 7, 'element': 187}, {'value': 3, 'element': 193}, {'value': 3, 'element': 200}, {'value': 2, 'element': 184}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 338}, {'value': 1, 'element': 342}, {'value': 1, 'element': 345}], 'h': [{'value': 1, 'element': 377}, {'value': 1, 'element': 389}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 336}, {'value': 1, 'element': 342}, {'value': 1, 'element': 344}], 'h': [{'value': 1, 'element': 393}, {'value': 1, 'element': 396}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 329}, {'value': 1, 'element': 338}], 'h': [{'value': 1, 'element': 380}, {'value': 1, 'element': 381}, {'value': 1, 'element': 393}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 3, 'element': 341}], 'h': [{'value': 3, 'element': 450}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 342}, {'value': 2, 'element': 336}, {'value': 1, 'element': 338}], 'h': []}, {'identifier': 'bps', 'a': [{'value': 42, 'element': 342}, {'value': 36, 'element': 336}, {'value': 24, 'element': 338}, {'value': 20, 'element': 344}, {'value': 17, 'element': 345}, {'value': 15, 'element': 347}, {'value': 13, 'element': 333}, {'value': 13, 'element': 341}, {'value': 12, 'element': 331}, {'value': 12, 'element': 350}, {'value': 11, 'element': 329}, {'value': 3, 'element': 332}, {'value': 2, 'element': 343}, {'value': 2, 'element': 349}], 'h': [{'value': 23, 'element': 377}, {'value': 23, 'element': 396}, {'value': 21, 'element': 389}, {'value': 17, 'element': 395}, {'value': 16, 'element': 393}, {'value': 14, 'element': 450}, {'value': 12, 'element': 376}, {'value': 9, 'element': 380}, {'value': 3, 'element': 390}, {'value': 3, 'element': 392}, {'value': 3, 'element': 399}, {'value': 2, 'element': 397}, {'value': -1, 'element': 381}, {'value': -2, 'element': 457}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 313}, {'value': 1, 'element': 321}], 'h': [{'value': 2, 'element': 12}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 305}], 'h': [{'value': 1, 'element': 11}, {'value': 1, 'element': 504}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': [{'value': 1, 'element': 14}]}, {'identifier': 'penalties_missed', 'a': [{'value': 1, 'element': 321}], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 305}, {'value': 1, 'element': 313}], 'h': [{'value': 1, 'element': 5}, {'value': 1, 'element': 12}, {'value': 1, 'element': 19}, {'value': 1, 'element': 21}, {'value': 1, 'element': 488}, {'value': 1, 'element': 515}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 3, 'element': 318}], 'h': [{'value': 4, 'element': 14}]}, {'identifier': 'bonus', 'a': [{'value': 1, 'element': 313}], 'h': [{'value': 3, 'element': 12}, {'value': 2, 'element': 14}]}, {'identifier': 'bps', 'a': [{'value': 24, 'element': 313}, {'value': 22, 'element': 305}, {'value': 22, 'element': 321}, {'value': 15, 'element': 318}, {'value': 13, 'element': 325}, {'value': 10, 'element': 307}, {'value': 10, 'element': 320}, {'value': 9, 'element': 308}, {'value': 8, 'element': 486}, {'value': 7, 'element': 314}, {'value': 4, 'element': 508}, {'value': 2, 'element': 315}, {'value': -1, 'element': 323}, {'value': -1, 'element': 438}], 'h': [{'value': 52, 'element': 12}, {'value': 30, 'element': 14}, {'value': 16, 'element': 15}, {'value': 16, 'element': 21}, {'value': 16, 'element': 106}, {'value': 14, 'element': 5}, {'value': 12, 'element': 504}, {'value': 12, 'element': 515}, {'value': 10, 'element': 2}, {'value': 10, 'element': 11}, {'value': 10, 'element': 19}, {'value': 6, 'element': 467}, {'value': 5, 'element': 490}, {'value': -3, 'element': 488}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 409}, {'value': 1, 'element': 415}], 'h': [{'value': 1, 'element': 58}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 410}, {'value': 1, 'element': 417}], 'h': [{'value': 1, 'element': 75}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 407}], 'h': [{'value': 1, 'element': 65}, {'value': 1, 'element': 476}]}, {'identifier': 'red_cards', 'a': [], 'h': [{'value': 1, 'element': 62}]}, {'identifier': 'saves', 'a': [{'value': 2, 'element': 411}], 'h': [{'value': 5, 'element': 494}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 415}, {'value': 1, 'element': 409}], 'h': [{'value': 2, 'element': 58}]}, {'identifier': 'bps', 'a': [{'value': 35, 'element': 415}, {'value': 27, 'element': 409}, {'value': 26, 'element': 417}, {'value': 21, 'element': 410}, {'value': 18, 'element': 403}, {'value': 14, 'element': 407}, {'value': 14, 'element': 420}, {'value': 13, 'element': 411}, {'value': 13, 'element': 414}, {'value': 11, 'element': 402}, {'value': 9, 'element': 401}, {'value': 3, 'element': 406}], 'h': [{'value': 31, 'element': 58}, {'value': 19, 'element': 494}, {'value': 15, 'element': 75}, {'value': 12, 'element': 63}, {'value': 12, 'element': 79}, {'value': 11, 'element': 82}, {'value': 10, 'element': 59}, {'value': 10, 'element': 65}, {'value': 7, 'element': 492}, {'value': 5, 'element': 67}, {'value': 3, 'element': 81}, {'value': 2, 'element': 505}, {'value': 1, 'element': 476}, {'value': -3, 'element': 62}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 166}, {'value': 1, 'element': 265}], 'h': []}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 166}, {'value': 1, 'element': 175}], 'h': []}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [], 'h': [{'value': 1, 'element': 57}, {'value': 1, 'element': 493}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [], 'h': [{'value': 7, 'element': 47}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 166}, {'value': 2, 'element': 161}, {'value': 1, 'element': 159}], 'h': []}, {'identifier': 'bps', 'a': [{'value': 38, 'element': 166}, {'value': 36, 'element': 161}, {'value': 32, 'element': 159}, {'value': 30, 'element': 164}, {'value': 23, 'element': 162}, {'value': 23, 'element': 265}, {'value': 19, 'element': 168}, {'value': 18, 'element': 171}, {'value': 16, 'element': 448}, {'value': 11, 'element': 176}, {'value': 10, 'element': 172}, {'value': 10, 'element': 175}, {'value': 4, 'element': 165}, {'value': 3, 'element': 517}], 'h': [{'value': 23, 'element': 47}, {'value': 18, 'element': 475}, {'value': 17, 'element': 516}, {'value': 12, 'element': 54}, {'value': 10, 'element': 38}, {'value': 9, 'element': 55}, {'value': 8, 'element': 57}, {'value': 7, 'element': 421}, {'value': 6, 'element': 493}, {'value': 4, 'element': 37}, {'value': 4, 'element': 546}, {'value': 3, 'element': 44}, {'value': 3, 'element': 502}, {'value': 2, 'element': 53}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 187}, {'value': 1, 'element': 192}], 'h': [{'value': 1, 'element': 133}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 181}], 'h': [{'value': 1, 'element': 135}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 197}], 'h': []}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 5, 'element': 189}], 'h': [{'value': 2, 'element': 131}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 187}, {'value': 2, 'element': 192}, {'value': 1, 'element': 181}], 'h': []}, {'identifier': 'bps', 'a': [{'value': 30, 'element': 187}, {'value': 26, 'element': 192}, {'value': 25, 'element': 181}, {'value': 20, 'element': 189}, {'value': 16, 'element': 198}, {'value': 15, 'element': 183}, {'value': 13, 'element': 182}, {'value': 13, 'element': 186}, {'value': 10, 'element': 197}, {'value': 9, 'element': 199}, {'value': 3, 'element': 184}, {'value': 3, 'element': 200}, {'value': 2, 'element': 193}, {'value': 1, 'element': 188}], 'h': [{'value': 20, 'element': 135}, {'value': 19, 'element': 133}, {'value': 18, 'element': 124}, {'value': 18, 'element': 139}, {'value': 16, 'element': 134}, {'value': 16, 'element': 503}, {'value': 13, 'element': 131}, {'value': 12, 'element': 126}, {'value': 11, 'element': 123}, {'value': 10, 'element': 138}, {'value': 4, 'element': 128}, {'value': 3, 'element': 137}, {'value': 1, 'element': 129}, {'value': -5, 'element': 468}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 279}, {'value': 1, 'element': 287}], 'h': []}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 278}], 'h': []}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 274}, {'value': 1, 'element': 275}, {'value': 1, 'element': 286}, {'value': 1, 'element': 289}, {'value': 1, 'element': 454}], 'h': [{'value': 1, 'element': 144}, {'value': 1, 'element': 158}, {'value': 1, 'element': 478}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 7, 'element': 280}], 'h': [{'value': 3, 'element': 148}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 280}, {'value': 2, 'element': 287}, {'value': 1, 'element': 279}], 'h': []}, {'identifier': 'bps', 'a': [{'value': 37, 'element': 280}, {'value': 32, 'element': 287}, {'value': 27, 'element': 279}, {'value': 23, 'element': 273}, {'value': 21, 'element': 274}, {'value': 21, 'element': 275}, {'value': 18, 'element': 284}, {'value': 17, 'element': 278}, {'value': 14, 'element': 454}, {'value': 13, 'element': 286}, {'value': 9, 'element': 289}, {'value': 6, 'element': 290}, {'value': 3, 'element': 507}, {'value': 2, 'element': 283}], 'h': [{'value': 16, 'element': 148}, {'value': 14, 'element': 141}, {'value': 11, 'element': 511}, {'value': 10, 'element': 142}, {'value': 9, 'element': 478}, {'value': 8, 'element': 154}, {'value': 7, 'element': 151}, {'value': 6, 'element': 17}, {'value': 6, 'element': 147}, {'value': 4, 'element': 144}, {'value': 4, 'element': 150}, {'value': 3, 'element': 146}, {'value': 2, 'element': 158}, {'value': 1, 'element': 153}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 84}, {'value': 1, 'element': 90}, {'value': 1, 'element': 91}], 'h': []}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 84}], 'h': []}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 83}, {'value': 1, 'element': 84}, {'value': 1, 'element': 101}], 'h': [{'value': 1, 'element': 364}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 4, 'element': 93}], 'h': [{'value': 2, 'element': 366}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 84}, {'value': 2, 'element': 93}, {'value': 1, 'element': 91}], 'h': []}, {'identifier': 'bps', 'a': [{'value': 34, 'element': 84}, {'value': 33, 'element': 93}, {'value': 32, 'element': 91}, {'value': 26, 'element': 90}, {'value': 25, 'element': 87}, {'value': 24, 'element': 83}, {'value': 24, 'element': 86}, {'value': 12, 'element': 101}, {'value': 8, 'element': 102}, {'value': 7, 'element': 97}, {'value': 3, 'element': 100}, {'value': -2, 'element': 451}], 'h': [{'value': 17, 'element': 358}, {'value': 16, 'element': 373}, {'value': 15, 'element': 368}, {'value': 13, 'element': 357}, {'value': 12, 'element': 356}, {'value': 12, 'element': 363}, {'value': 12, 'element': 366}, {'value': 7, 'element': 355}, {'value': 5, 'element': 370}, {'value': 5, 'element': 439}, {'value': 4, 'element': 353}, {'value': 3, 'element': 362}, {'value': 3, 'element': 525}, {'value': -3, 'element': 364}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 119}], 'h': [{'value': 1, 'element': 215}, {'value': 1, 'element': 217}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 432}], 'h': [{'value': 1, 'element': 443}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 118}], 'h': [{'value': 1, 'element': 222}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 2, 'element': 111}], 'h': [{'value': 1, 'element': 212}]}, {'identifier': 'bonus', 'a': [{'value': 2, 'element': 432}, {'value': 1, 'element': 119}], 'h': [{'value': 3, 'element': 217}]}, {'identifier': 'bps', 'a': [{'value': 34, 'element': 432}, {'value': 32, 'element': 119}, {'value': 21, 'element': 105}, {'value': 16, 'element': 459}, {'value': 16, 'element': 529}, {'value': 15, 'element': 111}, {'value': 13, 'element': 113}, {'value': 10, 'element': 431}, {'value': 9, 'element': 107}, {'value': 7, 'element': 118}, {'value': 6, 'element': 460}, {'value': 6, 'element': 506}, {'value': 4, 'element': 463}, {'value': -2, 'element': 461}], 'h': [{'value': 36, 'element': 217}, {'value': 28, 'element': 215}, {'value': 24, 'element': 221}, {'value': 24, 'element': 443}, {'value': 14, 'element': 212}, {'value': 12, 'element': 204}, {'value': 12, 'element': 207}, {'value': 11, 'element': 518}, {'value': 10, 'element': 214}, {'value': 9, 'element': 219}, {'value': 4, 'element': 220}, {'value': 2, 'element': 210}, {'value': 1, 'element': 211}, {'value': 1, 'element': 222}]}]</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>19</v>
@@ -1408,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -1470,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1735,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1779,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1991,7 +2015,7 @@
         <v>19</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2000,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -2256,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2318,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -2521,7 +2545,7 @@
         <v>16</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -2627,7 +2651,7 @@
         <v>9</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -2636,7 +2660,7 @@
         <v>15</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2689,7 +2713,7 @@
         <v>18</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -3007,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="P34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -3210,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -3263,7 +3287,7 @@
         <v>14</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3378,7 +3402,7 @@
         <v>8</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -3528,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3590,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="P45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -3634,7 +3658,7 @@
         <v>16</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3961,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="P52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4173,7 +4197,7 @@
         <v>8</v>
       </c>
       <c r="P56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -4270,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4332,7 +4356,7 @@
         <v>7</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -4376,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4535,7 +4559,7 @@
         <v>10</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -4650,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -5065,7 +5089,7 @@
         <v>17</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5180,7 +5204,7 @@
         <v>10</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -5286,7 +5310,7 @@
         <v>18</v>
       </c>
       <c r="P77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -5330,7 +5354,7 @@
         <v>7</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78">
         <v>2</v>
@@ -5445,7 +5469,7 @@
         <v>11</v>
       </c>
       <c r="P80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -5542,7 +5566,7 @@
         <v>12</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5604,7 +5628,7 @@
         <v>8</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -6072,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -6134,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -6231,7 +6255,7 @@
         <v>8</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N95">
         <v>2</v>
@@ -6337,7 +6361,7 @@
         <v>15</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -6346,7 +6370,7 @@
         <v>19</v>
       </c>
       <c r="P97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -6443,7 +6467,7 @@
         <v>20</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -6452,7 +6476,7 @@
         <v>13</v>
       </c>
       <c r="P99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -6717,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="P104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -6814,7 +6838,7 @@
         <v>14</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6920,7 +6944,7 @@
         <v>5</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6973,7 +6997,7 @@
         <v>13</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N109">
         <v>3</v>
@@ -7088,7 +7112,7 @@
         <v>7</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q111">
         <v>0</v>
@@ -7300,7 +7324,7 @@
         <v>5</v>
       </c>
       <c r="P115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -7344,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -7459,7 +7483,7 @@
         <v>17</v>
       </c>
       <c r="P118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -7688,10 +7712,10 @@
         <v>13</v>
       </c>
       <c r="D123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
         <v>130</v>
@@ -7700,21 +7724,24 @@
         <v>83</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
       </c>
       <c r="J123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="L123">
         <v>17</v>
       </c>
       <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
         <v>3</v>
       </c>
       <c r="O123">
@@ -7722,6 +7749,9 @@
       </c>
       <c r="P123">
         <v>4</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7735,10 +7765,10 @@
         <v>13</v>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
         <v>121</v>
@@ -7747,16 +7777,16 @@
         <v>84</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I124" t="b">
         <v>0</v>
       </c>
       <c r="J124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="L124">
         <v>16</v>
@@ -7764,10 +7794,16 @@
       <c r="M124">
         <v>4</v>
       </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
       <c r="O124">
         <v>1</v>
       </c>
       <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124">
         <v>2</v>
       </c>
     </row>
@@ -7782,10 +7818,10 @@
         <v>13</v>
       </c>
       <c r="D125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>123</v>
@@ -7794,16 +7830,16 @@
         <v>84</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
       </c>
       <c r="J125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="L125">
         <v>20</v>
@@ -7811,11 +7847,17 @@
       <c r="M125">
         <v>3</v>
       </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
       <c r="O125">
         <v>3</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7829,10 +7871,10 @@
         <v>13</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
         <v>124</v>
@@ -7841,28 +7883,34 @@
         <v>84</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
       </c>
       <c r="J126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="L126">
         <v>9</v>
       </c>
       <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
         <v>2</v>
       </c>
       <c r="O126">
         <v>4</v>
       </c>
       <c r="P126">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -7876,10 +7924,10 @@
         <v>13</v>
       </c>
       <c r="D127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <v>125</v>
@@ -7888,16 +7936,16 @@
         <v>84</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
       </c>
       <c r="J127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="L127">
         <v>10</v>
@@ -7905,11 +7953,17 @@
       <c r="M127">
         <v>2</v>
       </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
       <c r="O127">
         <v>7</v>
       </c>
       <c r="P127">
         <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -7923,10 +7977,10 @@
         <v>13</v>
       </c>
       <c r="D128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
         <v>126</v>
@@ -7935,16 +7989,16 @@
         <v>84</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I128" t="b">
         <v>0</v>
       </c>
       <c r="J128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="L128">
         <v>14</v>
@@ -7952,14 +8006,20 @@
       <c r="M128">
         <v>3</v>
       </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
       <c r="O128">
         <v>8</v>
       </c>
       <c r="P128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7970,10 +8030,10 @@
         <v>13</v>
       </c>
       <c r="D129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>129</v>
@@ -7982,16 +8042,16 @@
         <v>84</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
       <c r="J129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="s">
-        <v>163</v>
+        <v>290</v>
       </c>
       <c r="L129">
         <v>5</v>
@@ -7999,14 +8059,20 @@
       <c r="M129">
         <v>2</v>
       </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
       <c r="O129">
         <v>18</v>
       </c>
       <c r="P129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8017,10 +8083,10 @@
         <v>13</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>127</v>
@@ -8029,16 +8095,16 @@
         <v>85</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
       </c>
       <c r="J130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="L130">
         <v>6</v>
@@ -8046,14 +8112,20 @@
       <c r="M130">
         <v>5</v>
       </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
       <c r="O130">
         <v>11</v>
       </c>
       <c r="P130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8091,7 +8163,7 @@
         <v>12</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O131">
         <v>15</v>
@@ -8100,7 +8172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:17">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8147,7 +8219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:17">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8185,7 +8257,7 @@
         <v>11</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O133">
         <v>13</v>
@@ -8194,7 +8266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:17">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8241,7 +8313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:17">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8285,10 +8357,10 @@
         <v>6</v>
       </c>
       <c r="P135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8335,7 +8407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:17">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8382,7 +8454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:17">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8429,7 +8501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:17">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8476,7 +8548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:17">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8520,10 +8592,10 @@
         <v>20</v>
       </c>
       <c r="P140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8570,7 +8642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:17">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8617,7 +8689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:17">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8664,7 +8736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:17">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8943,7 +9015,7 @@
         <v>20</v>
       </c>
       <c r="P149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9031,7 +9103,7 @@
         <v>13</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O151">
         <v>15</v>
@@ -9366,7 +9438,7 @@
         <v>2</v>
       </c>
       <c r="P158">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9407,7 +9479,7 @@
         <v>16</v>
       </c>
       <c r="M159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O159">
         <v>13</v>
@@ -9460,7 +9532,7 @@
         <v>14</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9501,13 +9573,13 @@
         <v>20</v>
       </c>
       <c r="M161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O161">
         <v>4</v>
       </c>
       <c r="P161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9548,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="M162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O162">
         <v>19</v>
@@ -9783,7 +9855,7 @@
         <v>2</v>
       </c>
       <c r="M167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O167">
         <v>15</v>
@@ -9836,7 +9908,7 @@
         <v>16</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10206,13 +10278,13 @@
         <v>15</v>
       </c>
       <c r="M176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O176">
         <v>4</v>
       </c>
       <c r="P176">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10253,7 +10325,7 @@
         <v>7</v>
       </c>
       <c r="M177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O177">
         <v>13</v>
@@ -10306,7 +10378,7 @@
         <v>14</v>
       </c>
       <c r="P178">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10353,7 +10425,7 @@
         <v>11</v>
       </c>
       <c r="P179">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10682,7 +10754,7 @@
         <v>7</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10770,7 +10842,7 @@
         <v>18</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O188">
         <v>15</v>
@@ -10958,7 +11030,7 @@
         <v>3</v>
       </c>
       <c r="M192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O192">
         <v>4</v>
@@ -11005,7 +11077,7 @@
         <v>8</v>
       </c>
       <c r="M193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O193">
         <v>13</v>
@@ -11193,13 +11265,13 @@
         <v>9</v>
       </c>
       <c r="M197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O197">
         <v>19</v>
       </c>
       <c r="P197">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11340,7 +11412,7 @@
         <v>10</v>
       </c>
       <c r="P200">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11387,7 +11459,7 @@
         <v>11</v>
       </c>
       <c r="P201">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11428,7 +11500,7 @@
         <v>6</v>
       </c>
       <c r="M202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O202">
         <v>4</v>
@@ -11522,13 +11594,13 @@
         <v>9</v>
       </c>
       <c r="M204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O204">
         <v>13</v>
       </c>
       <c r="P204">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11622,7 +11694,7 @@
         <v>18</v>
       </c>
       <c r="P206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11757,7 +11829,7 @@
         <v>3</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O209">
         <v>19</v>
@@ -11857,7 +11929,7 @@
         <v>10</v>
       </c>
       <c r="P211">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11898,13 +11970,13 @@
         <v>19</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O212">
         <v>15</v>
       </c>
       <c r="P212">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12421,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="P223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12462,7 +12534,7 @@
         <v>2</v>
       </c>
       <c r="M224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O224">
         <v>4</v>
@@ -12609,7 +12681,7 @@
         <v>16</v>
       </c>
       <c r="P227">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12650,7 +12722,7 @@
         <v>8</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O228">
         <v>19</v>
@@ -12697,7 +12769,7 @@
         <v>6</v>
       </c>
       <c r="M229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O229">
         <v>13</v>
@@ -12750,7 +12822,7 @@
         <v>5</v>
       </c>
       <c r="P230">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13026,7 +13098,7 @@
         <v>11</v>
       </c>
       <c r="M236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O236">
         <v>15</v>
@@ -13126,7 +13198,7 @@
         <v>9</v>
       </c>
       <c r="P238">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13408,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="P244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13549,7 +13621,7 @@
         <v>12</v>
       </c>
       <c r="P247">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13590,7 +13662,7 @@
         <v>14</v>
       </c>
       <c r="M248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O248">
         <v>13</v>
@@ -13731,7 +13803,7 @@
         <v>4</v>
       </c>
       <c r="M251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O251">
         <v>19</v>
@@ -13872,7 +13944,7 @@
         <v>18</v>
       </c>
       <c r="M254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O254">
         <v>4</v>
@@ -14019,7 +14091,7 @@
         <v>11</v>
       </c>
       <c r="P257">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14107,7 +14179,7 @@
         <v>3</v>
       </c>
       <c r="M259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O259">
         <v>15</v>
@@ -14207,7 +14279,7 @@
         <v>20</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -14489,7 +14561,7 @@
         <v>10</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14577,7 +14649,7 @@
         <v>4</v>
       </c>
       <c r="M269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O269">
         <v>15</v>
@@ -14724,7 +14796,7 @@
         <v>2</v>
       </c>
       <c r="P272">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -14812,7 +14884,7 @@
         <v>7</v>
       </c>
       <c r="M274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O274">
         <v>4</v>
@@ -14953,7 +15025,7 @@
         <v>5</v>
       </c>
       <c r="M277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O277">
         <v>13</v>
@@ -15006,7 +15078,7 @@
         <v>14</v>
       </c>
       <c r="P278">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15053,7 +15125,7 @@
         <v>17</v>
       </c>
       <c r="P279">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15141,7 +15213,7 @@
         <v>16</v>
       </c>
       <c r="M281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O281">
         <v>19</v>
@@ -15194,7 +15266,7 @@
         <v>1</v>
       </c>
       <c r="P282">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15517,7 +15589,7 @@
         <v>14</v>
       </c>
       <c r="M289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O289">
         <v>15</v>
@@ -15752,7 +15824,7 @@
         <v>1</v>
       </c>
       <c r="M294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O294">
         <v>4</v>
@@ -15893,13 +15965,13 @@
         <v>15</v>
       </c>
       <c r="M297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O297">
         <v>13</v>
       </c>
       <c r="P297">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16040,7 +16112,7 @@
         <v>18</v>
       </c>
       <c r="P300">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16081,13 +16153,13 @@
         <v>20</v>
       </c>
       <c r="M301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O301">
         <v>19</v>
       </c>
       <c r="P301">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16322,7 +16394,7 @@
         <v>12</v>
       </c>
       <c r="P306">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16363,7 +16435,7 @@
         <v>2</v>
       </c>
       <c r="M307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O307">
         <v>13</v>
@@ -16510,7 +16582,7 @@
         <v>17</v>
       </c>
       <c r="P310">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -16651,7 +16723,7 @@
         <v>2</v>
       </c>
       <c r="P313">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -16739,7 +16811,7 @@
         <v>12</v>
       </c>
       <c r="M315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O315">
         <v>4</v>
@@ -16839,7 +16911,7 @@
         <v>8</v>
       </c>
       <c r="P317">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -16927,7 +16999,7 @@
         <v>17</v>
       </c>
       <c r="M319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O319">
         <v>15</v>
@@ -17021,7 +17093,7 @@
         <v>6</v>
       </c>
       <c r="M321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O321">
         <v>19</v>
@@ -17074,7 +17146,7 @@
         <v>5</v>
       </c>
       <c r="P322">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17303,13 +17375,13 @@
         <v>19</v>
       </c>
       <c r="M327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O327">
         <v>13</v>
       </c>
       <c r="P327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17544,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="P332">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -17679,7 +17751,7 @@
         <v>10</v>
       </c>
       <c r="M335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O335">
         <v>4</v>
@@ -17867,13 +17939,13 @@
         <v>20</v>
       </c>
       <c r="M339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O339">
         <v>15</v>
       </c>
       <c r="P339">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -17961,7 +18033,7 @@
         <v>5</v>
       </c>
       <c r="M341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O341">
         <v>19</v>
@@ -18061,7 +18133,7 @@
         <v>3</v>
       </c>
       <c r="P343">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -18102,7 +18174,7 @@
         <v>11</v>
       </c>
       <c r="M344">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O344">
         <v>4</v>
@@ -18249,7 +18321,7 @@
         <v>14</v>
       </c>
       <c r="P347">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18290,7 +18362,7 @@
         <v>6</v>
       </c>
       <c r="M348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O348">
         <v>15</v>
@@ -18531,7 +18603,7 @@
         <v>5</v>
       </c>
       <c r="P353">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:16">
@@ -18719,7 +18791,7 @@
         <v>9</v>
       </c>
       <c r="P357">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -18807,7 +18879,7 @@
         <v>17</v>
       </c>
       <c r="M359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O359">
         <v>13</v>
@@ -18901,7 +18973,7 @@
         <v>18</v>
       </c>
       <c r="M361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O361">
         <v>19</v>
@@ -19042,7 +19114,7 @@
         <v>13</v>
       </c>
       <c r="M364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O364">
         <v>4</v>
@@ -19142,7 +19214,7 @@
         <v>12</v>
       </c>
       <c r="P366">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19230,7 +19302,7 @@
         <v>8</v>
       </c>
       <c r="M368">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O368">
         <v>15</v>
@@ -19283,7 +19355,7 @@
         <v>17</v>
       </c>
       <c r="P369">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -19518,7 +19590,7 @@
         <v>6</v>
       </c>
       <c r="P374">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -19747,7 +19819,7 @@
         <v>10</v>
       </c>
       <c r="M379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O379">
         <v>13</v>
@@ -19800,7 +19872,7 @@
         <v>16</v>
       </c>
       <c r="P380">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:16">
@@ -19841,7 +19913,7 @@
         <v>2</v>
       </c>
       <c r="M381">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O381">
         <v>19</v>

--- a/fplfixtures.xlsx
+++ b/fplfixtures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="293">
   <si>
     <t>code</t>
   </si>
@@ -890,6 +890,9 @@
   </si>
   <si>
     <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 119}], 'h': [{'value': 1, 'element': 215}, {'value': 1, 'element': 217}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 432}], 'h': [{'value': 1, 'element': 443}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 118}], 'h': [{'value': 1, 'element': 222}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 2, 'element': 111}], 'h': [{'value': 1, 'element': 212}]}, {'identifier': 'bonus', 'a': [{'value': 2, 'element': 432}, {'value': 1, 'element': 119}], 'h': [{'value': 3, 'element': 217}]}, {'identifier': 'bps', 'a': [{'value': 34, 'element': 432}, {'value': 32, 'element': 119}, {'value': 21, 'element': 105}, {'value': 16, 'element': 459}, {'value': 16, 'element': 529}, {'value': 15, 'element': 111}, {'value': 13, 'element': 113}, {'value': 10, 'element': 431}, {'value': 9, 'element': 107}, {'value': 7, 'element': 118}, {'value': 6, 'element': 460}, {'value': 6, 'element': 506}, {'value': 4, 'element': 463}, {'value': -2, 'element': 461}], 'h': [{'value': 36, 'element': 217}, {'value': 28, 'element': 215}, {'value': 24, 'element': 221}, {'value': 24, 'element': 443}, {'value': 14, 'element': 212}, {'value': 12, 'element': 204}, {'value': 12, 'element': 207}, {'value': 11, 'element': 518}, {'value': 10, 'element': 214}, {'value': 9, 'element': 219}, {'value': 4, 'element': 220}, {'value': 2, 'element': 210}, {'value': 1, 'element': 211}, {'value': 1, 'element': 222}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 233}, {'value': 1, 'element': 234}, {'value': 1, 'element': 549}], 'h': [{'value': 1, 'element': 70}, {'value': 1, 'element': 301}, {'value': 1, 'element': 501}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 233}, {'value': 1, 'element': 243}], 'h': [{'value': 1, 'element': 297}, {'value': 1, 'element': 301}, {'value': 1, 'element': 453}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 122}, {'value': 1, 'element': 549}], 'h': [{'value': 1, 'element': 297}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 5, 'element': 235}], 'h': [{'value': 2, 'element': 436}]}, {'identifier': 'bonus', 'a': [{'value': 2, 'element': 233}], 'h': [{'value': 3, 'element': 301}, {'value': 1, 'element': 70}]}, {'identifier': 'bps', 'a': [{'value': 40, 'element': 233}, {'value': 27, 'element': 234}, {'value': 25, 'element': 243}, {'value': 21, 'element': 549}, {'value': 20, 'element': 235}, {'value': 18, 'element': 244}, {'value': 15, 'element': 225}, {'value': 13, 'element': 160}, {'value': 9, 'element': 122}, {'value': 9, 'element': 246}, {'value': 6, 'element': 241}, {'value': 4, 'element': 231}, {'value': 2, 'element': 239}, {'value': 2, 'element': 481}], 'h': [{'value': 43, 'element': 301}, {'value': 29, 'element': 70}, {'value': 27, 'element': 501}, {'value': 18, 'element': 444}, {'value': 16, 'element': 423}, {'value': 15, 'element': 291}, {'value': 14, 'element': 302}, {'value': 13, 'element': 453}, {'value': 12, 'element': 293}, {'value': 12, 'element': 297}, {'value': 9, 'element': 294}, {'value': 9, 'element': 436}, {'value': 6, 'element': 303}, {'value': 2, 'element': 298}]}]</t>
   </si>
 </sst>
 </file>
@@ -8136,10 +8139,10 @@
         <v>13</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>128</v>
@@ -8148,16 +8151,16 @@
         <v>86</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
       </c>
       <c r="J131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="L131">
         <v>12</v>
@@ -8165,11 +8168,17 @@
       <c r="M131">
         <v>3</v>
       </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
       <c r="O131">
         <v>15</v>
       </c>
       <c r="P131">
         <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:17">

--- a/fplfixtures.xlsx
+++ b/fplfixtures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="294">
   <si>
     <t>code</t>
   </si>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 233}, {'value': 1, 'element': 234}, {'value': 1, 'element': 549}], 'h': [{'value': 1, 'element': 70}, {'value': 1, 'element': 301}, {'value': 1, 'element': 501}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 233}, {'value': 1, 'element': 243}], 'h': [{'value': 1, 'element': 297}, {'value': 1, 'element': 301}, {'value': 1, 'element': 453}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 122}, {'value': 1, 'element': 549}], 'h': [{'value': 1, 'element': 297}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 5, 'element': 235}], 'h': [{'value': 2, 'element': 436}]}, {'identifier': 'bonus', 'a': [{'value': 2, 'element': 233}], 'h': [{'value': 3, 'element': 301}, {'value': 1, 'element': 70}]}, {'identifier': 'bps', 'a': [{'value': 40, 'element': 233}, {'value': 27, 'element': 234}, {'value': 25, 'element': 243}, {'value': 21, 'element': 549}, {'value': 20, 'element': 235}, {'value': 18, 'element': 244}, {'value': 15, 'element': 225}, {'value': 13, 'element': 160}, {'value': 9, 'element': 122}, {'value': 9, 'element': 246}, {'value': 6, 'element': 241}, {'value': 4, 'element': 231}, {'value': 2, 'element': 239}, {'value': 2, 'element': 481}], 'h': [{'value': 43, 'element': 301}, {'value': 29, 'element': 70}, {'value': 27, 'element': 501}, {'value': 18, 'element': 444}, {'value': 16, 'element': 423}, {'value': 15, 'element': 291}, {'value': 14, 'element': 302}, {'value': 13, 'element': 453}, {'value': 12, 'element': 293}, {'value': 12, 'element': 297}, {'value': 9, 'element': 294}, {'value': 9, 'element': 436}, {'value': 6, 'element': 303}, {'value': 2, 'element': 298}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [], 'h': [{'value': 1, 'element': 28}, {'value': 1, 'element': 30}]}, {'identifier': 'assists', 'a': [], 'h': [{'value': 1, 'element': 28}, {'value': 1, 'element': 29}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 254}], 'h': [{'value': 1, 'element': 428}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 6, 'element': 262}], 'h': [{'value': 5, 'element': 94}]}, {'identifier': 'bonus', 'a': [], 'h': [{'value': 3, 'element': 28}, {'value': 2, 'element': 458}, {'value': 1, 'element': 309}]}, {'identifier': 'bps', 'a': [{'value': 23, 'element': 262}, {'value': 17, 'element': 269}, {'value': 10, 'element': 466}, {'value': 10, 'element': 498}, {'value': 8, 'element': 253}, {'value': 8, 'element': 255}, {'value': 8, 'element': 259}, {'value': 7, 'element': 266}, {'value': 7, 'element': 520}, {'value': 6, 'element': 271}, {'value': 5, 'element': 254}, {'value': 5, 'element': 554}, {'value': 4, 'element': 500}, {'value': 2, 'element': 267}], 'h': [{'value': 50, 'element': 28}, {'value': 34, 'element': 458}, {'value': 33, 'element': 309}, {'value': 32, 'element': 94}, {'value': 32, 'element': 445}, {'value': 25, 'element': 29}, {'value': 24, 'element': 452}, {'value': 23, 'element': 30}, {'value': 11, 'element': 470}, {'value': 3, 'element': 35}, {'value': 2, 'element': 31}, {'value': -1, 'element': 428}]}]</t>
   </si>
 </sst>
 </file>
@@ -8192,10 +8195,10 @@
         <v>13</v>
       </c>
       <c r="D132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <v>122</v>
@@ -8204,16 +8207,16 @@
         <v>87</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
       </c>
       <c r="J132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="L132">
         <v>13</v>
@@ -8221,10 +8224,16 @@
       <c r="M132">
         <v>2</v>
       </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
       <c r="O132">
         <v>2</v>
       </c>
       <c r="P132">
+        <v>2</v>
+      </c>
+      <c r="Q132">
         <v>2</v>
       </c>
     </row>

--- a/fplfixtures.xlsx
+++ b/fplfixtures.xlsx
@@ -346,7 +346,7 @@
     <t>2019-12-15T16:30:00Z</t>
   </si>
   <si>
-    <t>2019-12-16T20:00:00Z</t>
+    <t>2019-12-16T19:45:00Z</t>
   </si>
   <si>
     <t>2019-12-21T12:30:00Z</t>

--- a/fplfixtures.xlsx
+++ b/fplfixtures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="304">
   <si>
     <t>code</t>
   </si>
@@ -896,6 +896,36 @@
   </si>
   <si>
     <t>[{'identifier': 'goals_scored', 'a': [], 'h': [{'value': 1, 'element': 28}, {'value': 1, 'element': 30}]}, {'identifier': 'assists', 'a': [], 'h': [{'value': 1, 'element': 28}, {'value': 1, 'element': 29}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 254}], 'h': [{'value': 1, 'element': 428}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 6, 'element': 262}], 'h': [{'value': 5, 'element': 94}]}, {'identifier': 'bonus', 'a': [], 'h': [{'value': 3, 'element': 28}, {'value': 2, 'element': 458}, {'value': 1, 'element': 309}]}, {'identifier': 'bps', 'a': [{'value': 23, 'element': 262}, {'value': 17, 'element': 269}, {'value': 10, 'element': 466}, {'value': 10, 'element': 498}, {'value': 8, 'element': 253}, {'value': 8, 'element': 255}, {'value': 8, 'element': 259}, {'value': 7, 'element': 266}, {'value': 7, 'element': 520}, {'value': 6, 'element': 271}, {'value': 5, 'element': 254}, {'value': 5, 'element': 554}, {'value': 4, 'element': 500}, {'value': 2, 'element': 267}], 'h': [{'value': 50, 'element': 28}, {'value': 34, 'element': 458}, {'value': 33, 'element': 309}, {'value': 32, 'element': 94}, {'value': 32, 'element': 445}, {'value': 25, 'element': 29}, {'value': 24, 'element': 452}, {'value': 23, 'element': 30}, {'value': 11, 'element': 470}, {'value': 3, 'element': 35}, {'value': 2, 'element': 31}, {'value': -1, 'element': 428}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 214}, {'value': 1, 'element': 215}], 'h': [{'value': 1, 'element': 269}, {'value': 1, 'element': 498}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 219}], 'h': [{'value': 1, 'element': 266}, {'value': 1, 'element': 267}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 221}, {'value': 1, 'element': 222}], 'h': [{'value': 1, 'element': 256}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 1, 'element': 212}], 'h': [{'value': 7, 'element': 262}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 215}], 'h': [{'value': 2, 'element': 269}, {'value': 1, 'element': 262}]}, {'identifier': 'bps', 'a': [{'value': 35, 'element': 215}, {'value': 21, 'element': 219}, {'value': 20, 'element': 214}, {'value': 17, 'element': 204}, {'value': 16, 'element': 207}, {'value': 15, 'element': 203}, {'value': 15, 'element': 217}, {'value': 13, 'element': 221}, {'value': 12, 'element': 222}, {'value': 11, 'element': 212}, {'value': 3, 'element': 220}, {'value': 3, 'element': 443}, {'value': 1, 'element': 211}, {'value': -2, 'element': 218}], 'h': [{'value': 27, 'element': 269}, {'value': 24, 'element': 262}, {'value': 22, 'element': 498}, {'value': 17, 'element': 254}, {'value': 17, 'element': 266}, {'value': 15, 'element': 259}, {'value': 14, 'element': 255}, {'value': 13, 'element': 267}, {'value': 11, 'element': 500}, {'value': 8, 'element': 271}, {'value': 5, 'element': 256}, {'value': 5, 'element': 466}, {'value': 2, 'element': 554}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 133}, {'value': 1, 'element': 137}], 'h': []}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 127}], 'h': []}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [], 'h': [{'value': 1, 'element': 86}, {'value': 1, 'element': 97}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 3, 'element': 131}], 'h': [{'value': 1, 'element': 93}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 133}, {'value': 2, 'element': 124}, {'value': 1, 'element': 131}], 'h': []}, {'identifier': 'bps', 'a': [{'value': 33, 'element': 133}, {'value': 29, 'element': 124}, {'value': 28, 'element': 131}, {'value': 24, 'element': 128}, {'value': 23, 'element': 123}, {'value': 22, 'element': 127}, {'value': 20, 'element': 137}, {'value': 12, 'element': 135}, {'value': 10, 'element': 138}, {'value': 9, 'element': 134}, {'value': 5, 'element': 125}, {'value': 5, 'element': 468}, {'value': 1, 'element': 129}, {'value': -2, 'element': 139}], 'h': [{'value': 18, 'element': 100}, {'value': 16, 'element': 98}, {'value': 13, 'element': 84}, {'value': 11, 'element': 83}, {'value': 11, 'element': 93}, {'value': 9, 'element': 86}, {'value': 9, 'element': 102}, {'value': 8, 'element': 97}, {'value': 5, 'element': 430}, {'value': 3, 'element': 87}, {'value': 3, 'element': 451}, {'value': 1, 'element': 90}, {'value': -1, 'element': 447}, {'value': -5, 'element': 91}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 376}], 'h': []}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 399}], 'h': []}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 376}, {'value': 1, 'element': 392}, {'value': 1, 'element': 399}], 'h': []}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 6, 'element': 553}], 'h': [{'value': 3, 'element': 111}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 376}, {'value': 2, 'element': 553}, {'value': 1, 'element': 382}], 'h': []}, {'identifier': 'bps', 'a': [{'value': 36, 'element': 376}, {'value': 34, 'element': 553}, {'value': 30, 'element': 382}, {'value': 26, 'element': 377}, {'value': 24, 'element': 380}, {'value': 15, 'element': 393}, {'value': 15, 'element': 399}, {'value': 14, 'element': 395}, {'value': 9, 'element': 390}, {'value': 8, 'element': 396}, {'value': 3, 'element': 457}, {'value': 2, 'element': 378}, {'value': -1, 'element': 392}, {'value': -2, 'element': 389}], 'h': [{'value': 22, 'element': 506}, {'value': 19, 'element': 107}, {'value': 17, 'element': 432}, {'value': 15, 'element': 459}, {'value': 14, 'element': 463}, {'value': 13, 'element': 111}, {'value': 10, 'element': 114}, {'value': 9, 'element': 118}, {'value': 9, 'element': 529}, {'value': 7, 'element': 119}, {'value': 6, 'element': 113}, {'value': 6, 'element': 116}, {'value': 1, 'element': 110}, {'value': -1, 'element': 431}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 42}], 'h': [{'value': 2, 'element': 183}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 421}], 'h': [{'value': 2, 'element': 182}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [], 'h': []}, {'identifier': 'red_cards', 'a': [], 'h': [{'value': 1, 'element': 189}]}, {'identifier': 'saves', 'a': [{'value': 5, 'element': 47}], 'h': [{'value': 2, 'element': 189}, {'value': 2, 'element': 526}]}, {'identifier': 'bonus', 'a': [{'value': 1, 'element': 42}], 'h': [{'value': 3, 'element': 183}, {'value': 2, 'element': 182}]}, {'identifier': 'bps', 'a': [{'value': 27, 'element': 42}, {'value': 24, 'element': 475}, {'value': 19, 'element': 47}, {'value': 17, 'element': 54}, {'value': 17, 'element': 57}, {'value': 16, 'element': 493}, {'value': 16, 'element': 516}, {'value': 11, 'element': 49}, {'value': 9, 'element': 38}, {'value': 9, 'element': 53}, {'value': 7, 'element': 421}, {'value': 6, 'element': 537}, {'value': 1, 'element': 502}, {'value': -1, 'element': 534}], 'h': [{'value': 42, 'element': 183}, {'value': 29, 'element': 182}, {'value': 17, 'element': 192}, {'value': 15, 'element': 186}, {'value': 13, 'element': 199}, {'value': 12, 'element': 198}, {'value': 9, 'element': 181}, {'value': 7, 'element': 189}, {'value': 7, 'element': 193}, {'value': 6, 'element': 191}, {'value': 5, 'element': 187}, {'value': 5, 'element': 526}, {'value': 3, 'element': 188}, {'value': 3, 'element': 195}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 2, 'element': 505}], 'h': [{'value': 2, 'element': 344}, {'value': 1, 'element': 349}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 79}, {'value': 1, 'element': 492}], 'h': [{'value': 2, 'element': 342}, {'value': 1, 'element': 331}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 65}, {'value': 1, 'element': 82}], 'h': []}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 2, 'element': 494}], 'h': [{'value': 4, 'element': 341}]}, {'identifier': 'bonus', 'a': [{'value': 1, 'element': 505}], 'h': [{'value': 3, 'element': 344}, {'value': 2, 'element': 342}]}, {'identifier': 'bps', 'a': [{'value': 38, 'element': 505}, {'value': 29, 'element': 79}, {'value': 24, 'element': 492}, {'value': 14, 'element': 58}, {'value': 14, 'element': 59}, {'value': 11, 'element': 494}, {'value': 10, 'element': 82}, {'value': 10, 'element': 446}, {'value': 9, 'element': 69}, {'value': 7, 'element': 65}, {'value': 5, 'element': 75}, {'value': 1, 'element': 67}], 'h': [{'value': 50, 'element': 344}, {'value': 47, 'element': 342}, {'value': 36, 'element': 349}, {'value': 26, 'element': 331}, {'value': 19, 'element': 442}, {'value': 17, 'element': 341}, {'value': 16, 'element': 336}, {'value': 15, 'element': 330}, {'value': 14, 'element': 333}, {'value': 14, 'element': 350}, {'value': 6, 'element': 338}, {'value': 4, 'element': 345}, {'value': 3, 'element': 347}, {'value': 2, 'element': 523}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 525}], 'h': [{'value': 1, 'element': 313}, {'value': 1, 'element': 321}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 373}], 'h': [{'value': 1, 'element': 325}, {'value': 1, 'element': 438}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [], 'h': [{'value': 1, 'element': 320}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 3, 'element': 366}], 'h': [{'value': 2, 'element': 318}]}, {'identifier': 'bonus', 'a': [{'value': 1, 'element': 373}], 'h': [{'value': 3, 'element': 313}, {'value': 2, 'element': 321}]}, {'identifier': 'bps', 'a': [{'value': 28, 'element': 373}, {'value': 21, 'element': 525}, {'value': 16, 'element': 357}, {'value': 15, 'element': 366}, {'value': 12, 'element': 358}, {'value': 11, 'element': 356}, {'value': 10, 'element': 370}, {'value': 9, 'element': 355}, {'value': 8, 'element': 353}, {'value': 8, 'element': 368}, {'value': 4, 'element': 542}, {'value': 3, 'element': 363}, {'value': 3, 'element': 374}, {'value': -1, 'element': 364}], 'h': [{'value': 38, 'element': 313}, {'value': 32, 'element': 321}, {'value': 27, 'element': 325}, {'value': 24, 'element': 438}, {'value': 17, 'element': 486}, {'value': 14, 'element': 307}, {'value': 13, 'element': 318}, {'value': 10, 'element': 308}, {'value': 9, 'element': 305}, {'value': 8, 'element': 508}, {'value': 6, 'element': 306}, {'value': 4, 'element': 314}, {'value': -1, 'element': 320}, {'value': -2, 'element': 315}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 2, 'element': 11}], 'h': [{'value': 1, 'element': 278}, {'value': 1, 'element': 287}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 1}, {'value': 1, 'element': 15}], 'h': [{'value': 1, 'element': 284}, {'value': 1, 'element': 286}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 467}], 'h': [{'value': 1, 'element': 280}, {'value': 1, 'element': 286}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 6, 'element': 14}], 'h': [{'value': 4, 'element': 280}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 11}, {'value': 1, 'element': 15}], 'h': [{'value': 2, 'element': 278}, {'value': 1, 'element': 287}]}, {'identifier': 'bps', 'a': [{'value': 58, 'element': 11}, {'value': 26, 'element': 15}, {'value': 24, 'element': 1}, {'value': 20, 'element': 14}, {'value': 16, 'element': 18}, {'value': 15, 'element': 106}, {'value': 14, 'element': 3}, {'value': 13, 'element': 21}, {'value': 9, 'element': 490}, {'value': 6, 'element': 467}, {'value': 4, 'element': 19}, {'value': 3, 'element': 504}, {'value': 3, 'element': 541}, {'value': 1, 'element': 12}], 'h': [{'value': 31, 'element': 278}, {'value': 26, 'element': 287}, {'value': 19, 'element': 284}, {'value': 18, 'element': 507}, {'value': 15, 'element': 273}, {'value': 15, 'element': 290}, {'value': 13, 'element': 275}, {'value': 13, 'element': 280}, {'value': 12, 'element': 286}, {'value': 12, 'element': 454}, {'value': 11, 'element': 274}, {'value': 8, 'element': 283}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 70}], 'h': [{'value': 1, 'element': 401}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 294}], 'h': [{'value': 1, 'element': 409}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 291}, {'value': 1, 'element': 293}, {'value': 1, 'element': 294}, {'value': 1, 'element': 295}, {'value': 1, 'element': 301}], 'h': [{'value': 1, 'element': 420}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 3, 'element': 471}], 'h': [{'value': 3, 'element': 411}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 70}, {'value': 1, 'element': 302}], 'h': [{'value': 2, 'element': 401}]}, {'identifier': 'bps', 'a': [{'value': 30, 'element': 70}, {'value': 24, 'element': 302}, {'value': 18, 'element': 423}, {'value': 16, 'element': 471}, {'value': 15, 'element': 294}, {'value': 14, 'element': 301}, {'value': 13, 'element': 291}, {'value': 13, 'element': 297}, {'value': 7, 'element': 293}, {'value': 6, 'element': 501}, {'value': 4, 'element': 295}, {'value': 4, 'element': 453}, {'value': 2, 'element': 441}, {'value': -1, 'element': 303}], 'h': [{'value': 25, 'element': 401}, {'value': 18, 'element': 415}, {'value': 16, 'element': 402}, {'value': 16, 'element': 403}, {'value': 15, 'element': 409}, {'value': 14, 'element': 411}, {'value': 13, 'element': 414}, {'value': 9, 'element': 408}, {'value': 9, 'element': 417}, {'value': 8, 'element': 420}, {'value': 5, 'element': 410}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 150}], 'h': [{'value': 1, 'element': 166}, {'value': 1, 'element': 167}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 511}], 'h': [{'value': 1, 'element': 159}, {'value': 1, 'element': 167}]}, {'identifier': 'own_goals', 'a': [], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 151}], 'h': []}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 4, 'element': 148}], 'h': [{'value': 2, 'element': 168}]}, {'identifier': 'bonus', 'a': [{'value': 1, 'element': 150}], 'h': [{'value': 3, 'element': 167}, {'value': 2, 'element': 159}]}, {'identifier': 'bps', 'a': [{'value': 26, 'element': 150}, {'value': 20, 'element': 148}, {'value': 19, 'element': 511}, {'value': 15, 'element': 141}, {'value': 14, 'element': 142}, {'value': 13, 'element': 154}, {'value': 12, 'element': 17}, {'value': 12, 'element': 478}, {'value': 8, 'element': 151}, {'value': 7, 'element': 143}, {'value': 4, 'element': 147}, {'value': 4, 'element': 158}, {'value': 1, 'element': 496}], 'h': [{'value': 38, 'element': 167}, {'value': 27, 'element': 159}, {'value': 25, 'element': 166}, {'value': 21, 'element': 162}, {'value': 20, 'element': 176}, {'value': 16, 'element': 164}, {'value': 15, 'element': 161}, {'value': 13, 'element': 168}, {'value': 13, 'element': 171}, {'value': 13, 'element': 448}, {'value': 9, 'element': 172}, {'value': 3, 'element': 174}, {'value': 2, 'element': 265}]}]</t>
+  </si>
+  <si>
+    <t>[{'identifier': 'goals_scored', 'a': [{'value': 1, 'element': 29}, {'value': 1, 'element': 445}], 'h': [{'value': 1, 'element': 225}]}, {'identifier': 'assists', 'a': [{'value': 1, 'element': 30}, {'value': 1, 'element': 309}], 'h': [{'value': 1, 'element': 233}]}, {'identifier': 'own_goals', 'a': [{'value': 1, 'element': 94}], 'h': []}, {'identifier': 'penalties_saved', 'a': [], 'h': []}, {'identifier': 'penalties_missed', 'a': [], 'h': []}, {'identifier': 'yellow_cards', 'a': [{'value': 1, 'element': 458}], 'h': [{'value': 1, 'element': 160}, {'value': 1, 'element': 226}, {'value': 1, 'element': 244}, {'value': 1, 'element': 549}]}, {'identifier': 'red_cards', 'a': [], 'h': []}, {'identifier': 'saves', 'a': [{'value': 5, 'element': 94}], 'h': [{'value': 1, 'element': 235}]}, {'identifier': 'bonus', 'a': [{'value': 3, 'element': 309}, {'value': 2, 'element': 29}], 'h': [{'value': 1, 'element': 225}]}, {'identifier': 'bps', 'a': [{'value': 31, 'element': 309}, {'value': 26, 'element': 29}, {'value': 23, 'element': 445}, {'value': 20, 'element': 470}, {'value': 17, 'element': 458}, {'value': 15, 'element': 30}, {'value': 15, 'element': 94}, {'value': 11, 'element': 31}, {'value': 8, 'element': 28}, {'value': 8, 'element': 452}, {'value': 6, 'element': 465}, {'value': 5, 'element': 428}, {'value': 1, 'element': 35}], 'h': [{'value': 25, 'element': 225}, {'value': 14, 'element': 246}, {'value': 11, 'element': 122}, {'value': 11, 'element': 549}, {'value': 10, 'element': 235}, {'value': 10, 'element': 244}, {'value': 8, 'element': 160}, {'value': 7, 'element': 233}, {'value': 7, 'element': 243}, {'value': 4, 'element': 241}, {'value': 4, 'element': 242}, {'value': 3, 'element': 234}, {'value': 1, 'element': 239}, {'value': -3, 'element': 226}]}]</t>
   </si>
 </sst>
 </file>
@@ -8248,10 +8278,10 @@
         <v>14</v>
       </c>
       <c r="D133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <v>136</v>
@@ -8260,16 +8290,16 @@
         <v>88</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
       </c>
       <c r="J133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c r="L133">
         <v>11</v>
@@ -8277,11 +8307,17 @@
       <c r="M133">
         <v>3</v>
       </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
       <c r="O133">
         <v>13</v>
       </c>
       <c r="P133">
         <v>4</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -8295,10 +8331,10 @@
         <v>14</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
         <v>131</v>
@@ -8307,16 +8343,16 @@
         <v>89</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
       <c r="J134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="L134">
         <v>7</v>
@@ -8324,11 +8360,17 @@
       <c r="M134">
         <v>3</v>
       </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
       <c r="O134">
         <v>5</v>
       </c>
       <c r="P134">
         <v>3</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -8342,10 +8384,10 @@
         <v>14</v>
       </c>
       <c r="D135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>132</v>
@@ -8354,16 +8396,16 @@
         <v>89</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
       </c>
       <c r="J135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="L135">
         <v>19</v>
@@ -8371,11 +8413,17 @@
       <c r="M135">
         <v>4</v>
       </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
       <c r="O135">
         <v>6</v>
       </c>
       <c r="P135">
         <v>2</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -8389,10 +8437,10 @@
         <v>14</v>
       </c>
       <c r="D136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
         <v>134</v>
@@ -8401,16 +8449,16 @@
         <v>89</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
       </c>
       <c r="J136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>163</v>
+        <v>297</v>
       </c>
       <c r="L136">
         <v>4</v>
@@ -8418,10 +8466,16 @@
       <c r="M136">
         <v>5</v>
       </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
       <c r="O136">
         <v>10</v>
       </c>
       <c r="P136">
+        <v>2</v>
+      </c>
+      <c r="Q136">
         <v>2</v>
       </c>
     </row>
@@ -8436,10 +8490,10 @@
         <v>14</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
         <v>139</v>
@@ -8448,28 +8502,34 @@
         <v>89</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I137" t="b">
         <v>0</v>
       </c>
       <c r="J137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137">
         <v>4</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
       </c>
       <c r="O137">
         <v>17</v>
       </c>
       <c r="P137">
         <v>2</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8483,10 +8543,10 @@
         <v>14</v>
       </c>
       <c r="D138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>138</v>
@@ -8495,16 +8555,16 @@
         <v>90</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
       </c>
       <c r="J138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="L138">
         <v>18</v>
@@ -8512,10 +8572,16 @@
       <c r="M138">
         <v>2</v>
       </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
       <c r="O138">
         <v>16</v>
       </c>
       <c r="P138">
+        <v>2</v>
+      </c>
+      <c r="Q138">
         <v>2</v>
       </c>
     </row>
@@ -8530,10 +8596,10 @@
         <v>14</v>
       </c>
       <c r="D139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
         <v>137</v>
@@ -8542,21 +8608,24 @@
         <v>91</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
       </c>
       <c r="J139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="L139">
         <v>1</v>
       </c>
       <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
         <v>2</v>
       </c>
       <c r="O139">
@@ -8564,6 +8633,9 @@
       </c>
       <c r="P139">
         <v>4</v>
+      </c>
+      <c r="Q139">
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8577,10 +8649,10 @@
         <v>14</v>
       </c>
       <c r="D140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
         <v>140</v>
@@ -8589,16 +8661,16 @@
         <v>91</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
       </c>
       <c r="J140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="L140">
         <v>15</v>
@@ -8606,11 +8678,17 @@
       <c r="M140">
         <v>3</v>
       </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
       <c r="O140">
         <v>20</v>
       </c>
       <c r="P140">
         <v>3</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -8624,10 +8702,10 @@
         <v>14</v>
       </c>
       <c r="D141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
         <v>133</v>
@@ -8636,16 +8714,16 @@
         <v>92</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
       </c>
       <c r="J141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="L141">
         <v>8</v>
@@ -8653,10 +8731,16 @@
       <c r="M141">
         <v>4</v>
       </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
       <c r="O141">
         <v>9</v>
       </c>
       <c r="P141">
+        <v>2</v>
+      </c>
+      <c r="Q141">
         <v>2</v>
       </c>
     </row>
@@ -8671,10 +8755,10 @@
         <v>14</v>
       </c>
       <c r="D142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>135</v>
@@ -8683,27 +8767,33 @@
         <v>92</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
       </c>
       <c r="J142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="L142">
         <v>2</v>
       </c>
       <c r="M142">
         <v>4</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
       </c>
       <c r="O142">
         <v>12</v>
       </c>
       <c r="P142">
+        <v>2</v>
+      </c>
+      <c r="Q142">
         <v>2</v>
       </c>
     </row>
